--- a/data/trans_camb/P54_A_4_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_4_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,94</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,43</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,86; 0,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,4; -3,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,4; -4,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,93; 6,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,27; -3,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,02; -2,62</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,16%</t>
         </is>
       </c>
     </row>
@@ -735,12 +735,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -12,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 7,75</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,5</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,4</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,3; 21,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,92; -5,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,93; -8,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,28; -6,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,38; 4,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,79; -11,08</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,94%</t>
         </is>
       </c>
     </row>
@@ -876,27 +876,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -12,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -40,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -17,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,56; 79,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -58,51</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,89</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,97</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,74</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,74; -0,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,79; -0,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,39; -4,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,64; -6,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,68; -5,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,95; -6,28</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,58%</t>
         </is>
       </c>
     </row>
@@ -1032,27 +1032,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 8,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -30,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -52,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,65; -41,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,66; -55,26</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,59</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,06</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,36</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,48; -2,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,84; -7,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,1; -14,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,16; -17,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,85; -11,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,57; -14,5</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,75%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,02%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,44%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,2%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-100,0; -3,16</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,31; -64,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -74,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,88; -63,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -83,71</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,98</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,91</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,22</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,16</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,22</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,01</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,84; -2,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,94; -8,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,4; -3,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,36; -11,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,76; -5,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,06; -12,08</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,8%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,27%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,18%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,74%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,85%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>-93,35; -9,02</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -54,93</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 20,3</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,32; -35,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -76,04</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,85</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,85</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,5</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,5</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,87</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,87</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,41; -3,82</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,29; -3,69</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,82; 0,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,74; 0,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,03; -4,61</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,14; -4,66</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,7</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,81</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,38</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,75</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,2</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,31</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,59; -2,59</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,28; -11,13</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,76; -11,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,28; -11,78</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,32; -9,98</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,55; -13,11</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,74%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,87%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,46%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,42%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,7%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,41%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,39 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,38; -9,01</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,86; -80,1</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,27; -74,61</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,74; -74,93</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,91; -53,62</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,43; -83,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
